--- a/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
+++ b/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="840" windowWidth="15540" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="9660" yWindow="460" windowWidth="15540" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -304,6 +304,43 @@
   </si>
   <si>
     <t xml:space="preserve">Account Not created and no message shown that account has been created. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protect </t>
+  </si>
+  <si>
+    <t>Unauthorise Access - Normal User Access Create User Page</t>
+  </si>
+  <si>
+    <t>Login with Test Case 7
+Email: ulinkassist_executive@hotmail.com 
+Password:  password!23
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/accountManagement.html</t>
+  </si>
+  <si>
+    <t>Page should direct to user home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unauthorise Access </t>
+  </si>
+  <si>
+    <t>Click the Logout button if it is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/index.html</t>
+  </si>
+  <si>
+    <t>Page should direct to login page</t>
+  </si>
+  <si>
+    <t>Click the Logout button if user is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/accountManagement.html</t>
+  </si>
+  <si>
+    <t>Click the Logout button if user is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/upload.html</t>
+  </si>
+  <si>
+    <t>Click the Logout button if user is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-link/viewScreenings.html</t>
   </si>
 </sst>
 </file>
@@ -923,7 +960,7 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,60 +1428,110 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+    <row r="21" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+    <row r="25" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>

--- a/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
+++ b/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smu/Desktop/Ulink/Test Cases/Iteration 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu Yan\Desktop\Ulink\Test Cases\Iteration 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
     <sheet name="Login &amp; Account Management" sheetId="21" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -141,212 +141,286 @@
     <t>Create Account - Admin Account</t>
   </si>
   <si>
-    <t>Login with Test Case 13 
-Email: anotherAdmin@hotmail.com 
+    <t xml:space="preserve">Create Account using new Admin Account  - test new admin's admin rights  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login -  test new admin's admin right  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Account using User Account </t>
+  </si>
+  <si>
+    <t>Account Management tab should not appear in header</t>
+  </si>
+  <si>
+    <t>Fail Login -  Admin  (wrong credentials)</t>
+  </si>
+  <si>
+    <t>Admin Change User's Password</t>
+  </si>
+  <si>
+    <t>Create Account - Check Duplicate</t>
+  </si>
+  <si>
+    <t>Error Message Shown (Account Existed)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Login / Logout</t>
+  </si>
+  <si>
+    <t>Email: xxx@hotmail.com
+Password: xxx
+Click Login button</t>
+  </si>
+  <si>
+    <t>Email: 
+Password: 
+Click Login button</t>
+  </si>
+  <si>
+    <t>Email: admin
+Password:  p@ssw0rd
+Click Login button</t>
+  </si>
+  <si>
+    <t>Email: admin 
+Password:  admin
+Click Login button</t>
+  </si>
+  <si>
+    <t>Acct Mgmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin change its account password </t>
+  </si>
+  <si>
+    <t>Email: admin
+Password: adminadmin
+Click Update button</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protect </t>
+  </si>
+  <si>
+    <t>Unauthorise Access - Normal User Access Create User Page</t>
+  </si>
+  <si>
+    <t>Page should direct to user home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unauthorise Access </t>
+  </si>
+  <si>
+    <t>Click the Logout button if it is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/index.html</t>
+  </si>
+  <si>
+    <t>Page should direct to login page</t>
+  </si>
+  <si>
+    <t>Click the Logout button if user is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/accountManagement.html</t>
+  </si>
+  <si>
+    <t>Click the Logout button if user is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/upload.html</t>
+  </si>
+  <si>
+    <t>Click the Logout button if user is login. 
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-link/viewScreenings.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message Shown (Wrong Credentials -  "Incorrect username/password") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message Shown (Any message about inputing the empty fields) </t>
+  </si>
+  <si>
+    <t>After clicking login button, it stays at the same page</t>
+  </si>
+  <si>
+    <t>Email: admin
+Password: 
+Click Login button</t>
+  </si>
+  <si>
+    <t>Email: 
+Password: admin
+Click Login button</t>
+  </si>
+  <si>
+    <t>Please input empty fields</t>
+  </si>
+  <si>
+    <t>Login Page Redirect To http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/index.html</t>
+  </si>
+  <si>
+    <t>Login with Test Case 16
+Email: anotheruser@hotmail.com
+Password: password 
+Click Login button</t>
+  </si>
+  <si>
+    <t>Login in with Test Case 17
+Access this URL:  accountManagement.html</t>
+  </si>
+  <si>
+    <t>Login in with Test Case 17
+Click on the Account Management tab on the header</t>
+  </si>
+  <si>
+    <t>Login with Test Case 6
+In Account Management tab, create User Account with the following -  
+Email: ulinkassist_executive
+Password:  password!23
+Role: 'Non-Admin' from drop down list 
+Click Create New Account button</t>
+  </si>
+  <si>
+    <t>A blue color text was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
+Note: This account appears in account mangement tab</t>
+  </si>
+  <si>
+    <t>Page remains the same after clicking the edit button. Unable to edit password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to log in </t>
+  </si>
+  <si>
+    <t>Login with Test Case 6
+Create a new Admin Account with the following -  Email: anotherAdmin
+Password:  password
+Role: 'Admin' from drop down list 
+Click Create New Account button</t>
+  </si>
+  <si>
+    <t>Able to access the page, page mentioned user was logged in as admin</t>
+  </si>
+  <si>
+    <t>Tab appearred in header. Able to access the page, page mentioned user was logged in as admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with Test Case 15 
+Create User Account with the following - 
+Email: anotheruser
+Password: password </t>
+  </si>
+  <si>
+    <t>Login with Test Case 15 
+Create Admin Account with the following - 
+Email: anotheruser
+Password: password123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A blue color text was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
+Unsure if this account's password / role has changed : has to verify DB
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to access the page. </t>
+  </si>
+  <si>
+    <t>Login with Test Case 9
+Email: anotheruser 
+Password:  password
+Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/createaccount.html</t>
+  </si>
+  <si>
+    <t>Login with Test Case 15 
+Email: anotherAdmin
 Password:  password
 Create User Account with the following - 
-Email: anotheruser@hotmail.com
+Email: anotheruser
 Password: password 
 Role: 'Non-Admin' from drop down list 
 Click Create New Account button</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Account using new Admin Account  - test new admin's admin rights  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login -  test new admin's admin right  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Account using User Account </t>
-  </si>
-  <si>
-    <t>Login in with Test Case 15
-Access this URL:  accountManagement.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Message Shown </t>
-  </si>
-  <si>
-    <t>Login in with Test Case 15
-Click on the Account Management tab on the header</t>
-  </si>
-  <si>
-    <t>Account Management tab should not appear in header</t>
-  </si>
-  <si>
-    <t>Fail Login -  Admin  (wrong credentials)</t>
-  </si>
-  <si>
-    <t>Admin Change User's Password</t>
-  </si>
-  <si>
-    <t>Login with Test Case 4
+    <t>Login with Test Case 6
+Email: admin 
+Password:  admin
+Select User Account (Created in Test Case 5) 
+ulinkassist_executive
+and click Delete button and click yes to confirm deletion</t>
+  </si>
+  <si>
+    <t>Login with Test Case 11
+Email: ulinkassist_executive
+Password:  password123
+Click Login button</t>
+  </si>
+  <si>
+    <t>Login with Test Case 7
+Email: ulinkassist_executive
+Password:  password!23
+Click Login button</t>
+  </si>
+  <si>
+    <t>Login with Test Case 6
 Email: admin
 Password:  admin
 Select User Account (Created in Test Case 5) 
-Email: ulinkassist_executive@hotmail.com , change esisting password to : password123   
+Email: ulinkassist_executive , change esisting password to : password123   
 Click Update button</t>
   </si>
   <si>
-    <t>Login with Test Case 4
-Email: admin 
-Password:  admin
-Select User Account (Created in Test Case 5) 
-ulinkassist_executive@hotmail.com 
-and click Delete button and click yes to confirm deletion</t>
-  </si>
-  <si>
-    <t>Login with Test Case 4
-Create User Account with the following -  
-Email: ulinkassist_executive@hotmail.com 
+    <t>Login with Test Case 9
+Email: ulinkassist_executive
 Password:  password!23
-Role: 'Non-Admin' from drop down list 
-Click Create New Account button</t>
-  </si>
-  <si>
-    <t>Create Account - Check Duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login with Test Case 13 
-Create User Account with the following - 
-Email: anotheruser@hotmail.com
-Password: password </t>
-  </si>
-  <si>
-    <t>Error Message Shown (Account Existed)</t>
-  </si>
-  <si>
-    <t>Please input empty fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Incorrect username/password"</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Login / Logout</t>
-  </si>
-  <si>
-    <t>Email: xxx@hotmail.com
-Password: xxx
+Click the Logout button</t>
+  </si>
+  <si>
+    <t>Email: ulinkassist_executive
+Password:  password!23
 Click Login button</t>
   </si>
   <si>
-    <t>Email: 
-Password: 
-Click Login button</t>
-  </si>
-  <si>
-    <t>Email: admin
-Password:  p@ssw0rd
-Click Login button</t>
-  </si>
-  <si>
-    <t>Email: admin 
-Password:  admin
-Click Login button</t>
-  </si>
-  <si>
-    <t>Acct Mgmt</t>
-  </si>
-  <si>
-    <t>Email: ulinkassist_executive@hotmail.com 
+    <t>Email: ulinkassist_executive
 Password:  password
 Click Login button</t>
   </si>
   <si>
-    <t>Email: ulinkassist_executive@hotmail.com 
-Password:  password!23
-Click Login button</t>
-  </si>
-  <si>
-    <t>Login with Test Case 7
-Email: ulinkassist_executive@hotmail.com 
-Password:  password!23
-Click the Logout button</t>
-  </si>
-  <si>
-    <t>Login with Test Case 5
-Email: ulinkassist_executive@hotmail.com 
-Password:  password!23
-Click Login button</t>
-  </si>
-  <si>
-    <t>Login with Test Case 9
-Email: ulinkassist_executive@hotmail.com 
-Password:  password123
-Click Login button</t>
-  </si>
-  <si>
-    <t>Login with Test Case 4
-Create a new Admin Account with the following -  Email: anotherAdmin@hotmail.com 
-Password:  password
-Role: 'Admin' from drop down list 
-Click Create New Account button</t>
-  </si>
-  <si>
-    <t>Login with Test Case 14 
-Email: anotheruser@hotmail.com
-Password: password 
-Click Login button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin change its account password </t>
-  </si>
-  <si>
-    <t>Email: admin
-Password: adminadmin
-Click Update button</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Not created and no message shown that account has been created. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protect </t>
-  </si>
-  <si>
-    <t>Unauthorise Access - Normal User Access Create User Page</t>
-  </si>
-  <si>
-    <t>Login with Test Case 7
-Email: ulinkassist_executive@hotmail.com 
-Password:  password!23
-Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/accountManagement.html</t>
-  </si>
-  <si>
-    <t>Page should direct to user home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unauthorise Access </t>
-  </si>
-  <si>
-    <t>Click the Logout button if it is login. 
-Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/index.html</t>
-  </si>
-  <si>
-    <t>Page should direct to login page</t>
-  </si>
-  <si>
-    <t>Click the Logout button if user is login. 
-Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/accountManagement.html</t>
-  </si>
-  <si>
-    <t>Click the Logout button if user is login. 
-Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/upload.html</t>
-  </si>
-  <si>
-    <t>Click the Logout button if user is login. 
-Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-link/viewScreenings.html</t>
+    <t xml:space="preserve">UI / Codes? </t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>ecf</t>
+  </si>
+  <si>
+    <t>After clicking the delete button, no confirmation window prompt and it remains at the same page. Only when the page refreshed, this account disappeared</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI
+DB : Password did not change to password123 and role not updated as well. </t>
+  </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>Error Message Shown / Redirect to home page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -697,7 +771,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
@@ -706,7 +780,7 @@
     <col min="5" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -726,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -746,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -766,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -774,7 +848,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -782,7 +856,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -790,7 +864,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -798,7 +872,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -806,7 +880,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -814,7 +888,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -822,7 +896,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -830,7 +904,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -838,7 +912,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -846,7 +920,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -854,7 +928,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -862,7 +936,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -870,7 +944,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -878,7 +952,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -886,7 +960,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -894,7 +968,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -902,7 +976,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -910,7 +984,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -918,7 +992,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -926,7 +1000,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -934,7 +1008,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -942,7 +1016,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -957,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="8" customWidth="1"/>
@@ -973,12 +1047,12 @@
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -995,586 +1069,742 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="217" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="217" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+    <row r="26" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+    <row r="27" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+    <row r="28" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
@@ -1586,7 +1816,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
@@ -1598,7 +1828,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
@@ -1610,7 +1840,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
@@ -1622,7 +1852,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -1634,7 +1864,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2"/>
@@ -1646,7 +1876,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
@@ -1658,7 +1888,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2"/>
@@ -1670,7 +1900,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -1682,7 +1912,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -1694,7 +1924,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
@@ -1706,7 +1936,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -1718,7 +1948,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -1730,7 +1960,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
@@ -1742,7 +1972,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -1754,7 +1984,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="2"/>
@@ -1766,7 +1996,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="2"/>
@@ -1778,7 +2008,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="2"/>
@@ -1790,7 +2020,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="2"/>
@@ -1802,7 +2032,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="2"/>
@@ -1814,7 +2044,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="2"/>
@@ -1826,7 +2056,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
@@ -1838,7 +2068,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="2"/>
@@ -1850,7 +2080,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="2"/>
@@ -1862,9 +2092,9 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1874,40 +2104,43 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -1918,7 +2151,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -1929,7 +2162,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -1940,7 +2173,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -1951,7 +2184,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -1962,7 +2195,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="5"/>
@@ -1973,7 +2206,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="5"/>
@@ -1984,7 +2217,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="5"/>
@@ -1995,7 +2228,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5"/>
@@ -2006,7 +2239,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5"/>
@@ -2017,7 +2250,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
@@ -2028,7 +2261,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
@@ -2039,7 +2272,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
@@ -2050,7 +2283,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5"/>
@@ -2061,7 +2294,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5"/>
@@ -2072,7 +2305,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="5"/>
@@ -2083,7 +2316,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
@@ -2094,7 +2327,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="5"/>
@@ -2105,7 +2338,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="5"/>
@@ -2116,7 +2349,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="5"/>
@@ -2127,7 +2360,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="5"/>
@@ -2138,7 +2371,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
@@ -2149,7 +2382,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
@@ -2160,7 +2393,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
@@ -2171,7 +2404,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="5"/>
@@ -2182,7 +2415,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5"/>
@@ -2193,7 +2426,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5"/>
@@ -2204,7 +2437,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="5"/>
@@ -2215,7 +2448,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="5"/>
@@ -2226,7 +2459,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="5"/>
@@ -2237,7 +2470,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="5"/>
@@ -2248,7 +2481,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="5"/>
@@ -2259,7 +2492,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="5"/>
@@ -2270,7 +2503,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5"/>
@@ -2281,7 +2514,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5"/>
@@ -2292,7 +2525,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5"/>
@@ -2303,7 +2536,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5"/>
@@ -2314,7 +2547,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="5"/>
@@ -2325,7 +2558,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5"/>
@@ -2336,7 +2569,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5"/>
@@ -2347,7 +2580,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5"/>
@@ -2358,7 +2591,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="5"/>
@@ -2369,7 +2602,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5"/>
@@ -2380,7 +2613,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
@@ -2391,7 +2624,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5"/>
@@ -2402,7 +2635,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="5"/>
@@ -2413,7 +2646,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5"/>
@@ -2424,7 +2657,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5"/>
@@ -2435,7 +2668,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
@@ -2446,7 +2679,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
@@ -2457,7 +2690,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
@@ -2468,7 +2701,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5"/>
@@ -2479,7 +2712,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5"/>
@@ -2490,7 +2723,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="5"/>
@@ -2501,7 +2734,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5"/>
@@ -2512,7 +2745,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5"/>
@@ -2523,7 +2756,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5"/>
@@ -2534,7 +2767,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5"/>
@@ -2545,7 +2778,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5"/>
@@ -2556,7 +2789,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
@@ -2567,7 +2800,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
@@ -2578,7 +2811,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5"/>
@@ -2589,7 +2822,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5"/>
@@ -2600,7 +2833,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5"/>
@@ -2611,7 +2844,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5"/>
@@ -2622,7 +2855,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5"/>
@@ -2633,7 +2866,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5"/>
@@ -2644,7 +2877,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5"/>
@@ -2655,7 +2888,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5"/>
@@ -2666,7 +2899,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5"/>
@@ -2677,7 +2910,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5"/>
@@ -2688,7 +2921,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5"/>
@@ -2699,7 +2932,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5"/>
@@ -2710,7 +2943,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5"/>
@@ -2721,7 +2954,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5"/>
@@ -2732,7 +2965,9 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -2741,7 +2976,39 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
     </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
+++ b/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
   <si>
     <t>No</t>
   </si>
@@ -318,14 +318,6 @@
 Password: password123</t>
   </si>
   <si>
-    <t xml:space="preserve">A blue color text was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
-Unsure if this account's password / role has changed : has to verify DB
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Able to access the page. </t>
-  </si>
-  <si>
     <t>Login with Test Case 9
 Email: anotheruser 
 Password:  password
@@ -398,23 +390,29 @@
     <t>ecf</t>
   </si>
   <si>
-    <t>After clicking the delete button, no confirmation window prompt and it remains at the same page. Only when the page refreshed, this account disappeared</t>
-  </si>
-  <si>
     <t>Codes</t>
   </si>
   <si>
-    <t xml:space="preserve">UI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI
-DB : Password did not change to password123 and role not updated as well. </t>
-  </si>
-  <si>
     <t>codes</t>
   </si>
   <si>
     <t>Error Message Shown / Redirect to home page</t>
+  </si>
+  <si>
+    <t>The page did not load after clicking the reset button</t>
+  </si>
+  <si>
+    <t>the account was removed without any success message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Username was taken" was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
+ </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Able to access the page and create account successfully.</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1070,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1096,7 +1094,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1191,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
@@ -1245,7 +1243,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
@@ -1261,7 +1259,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1273,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
@@ -1289,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1315,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1341,19 +1339,19 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
@@ -1369,7 +1367,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -1381,7 +1379,7 @@
         <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
@@ -1397,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1409,7 +1407,7 @@
         <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
@@ -1425,19 +1423,19 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
@@ -1465,7 +1463,7 @@
         <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
@@ -1481,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -1493,7 +1491,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
@@ -1538,7 +1536,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>72</v>
@@ -1547,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
@@ -1575,12 +1573,12 @@
         <v>47</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="217" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="124" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1597,18 +1595,18 @@
         <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="217" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="124" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1625,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
@@ -1659,7 +1657,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
@@ -1681,14 +1679,12 @@
         <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
@@ -1709,14 +1705,12 @@
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
@@ -1737,14 +1731,12 @@
         <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
@@ -1765,14 +1757,12 @@
         <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
@@ -1787,19 +1777,19 @@
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>

--- a/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
+++ b/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
   <si>
     <t>No</t>
   </si>
@@ -354,14 +354,6 @@
 Click Login button</t>
   </si>
   <si>
-    <t>Login with Test Case 6
-Email: admin
-Password:  admin
-Select User Account (Created in Test Case 5) 
-Email: ulinkassist_executive , change esisting password to : password123   
-Click Update button</t>
-  </si>
-  <si>
     <t>Login with Test Case 9
 Email: ulinkassist_executive
 Password:  password!23
@@ -405,14 +397,60 @@
     <t>the account was removed without any success message</t>
   </si>
   <si>
-    <t xml:space="preserve">"Username was taken" was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Able to access the page and create account successfully.</t>
+  </si>
+  <si>
+    <t>Login with Test Case 6
+Email: admin
+Password:  admin
+Select User Account (Created in Test Case 7) 
+Email: ulinkassist_executive , change esisting password to : password123   
+Click Update button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Username is taken" was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
  </t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Able to access the page and create account successfully.</t>
+    <t>Value specific validation</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Error message should appear to indicate fill cannot be empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing happens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login as admin, in accountmangement.html / account management tab, select anotheruser account, click 'reset' </t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account, do not input any fills and click 'Create New Account'</t>
+  </si>
+  <si>
+    <t>"Please input empty fields"</t>
+  </si>
+  <si>
+    <t>Error message should appear to indicate fields cannot be empty</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account
+email: email
+click 'Create New Account'</t>
+  </si>
+  <si>
+    <t>Login as admin, in createaccount.html / when creating account
+password: password
+click 'Create New Account'</t>
+  </si>
+  <si>
+    <t>"username is taken"
+Note: This account appears in account mangement tab</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1094,7 +1132,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1189,7 +1227,7 @@
         <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
@@ -1220,7 +1258,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1237,13 +1275,13 @@
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
@@ -1259,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1271,7 +1309,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
@@ -1287,7 +1325,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1313,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1339,19 +1377,19 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
@@ -1379,7 +1417,7 @@
         <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
@@ -1407,7 +1445,7 @@
         <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
@@ -1429,13 +1467,13 @@
         <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
@@ -1463,7 +1501,7 @@
         <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
@@ -1491,7 +1529,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
@@ -1536,7 +1574,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>72</v>
@@ -1545,7 +1583,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
@@ -1573,7 +1611,7 @@
         <v>47</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
@@ -1595,13 +1633,13 @@
         <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
@@ -1623,13 +1661,13 @@
         <v>37</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
@@ -1657,7 +1695,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
@@ -1682,7 +1720,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1708,7 +1746,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1734,7 +1772,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1760,7 +1798,7 @@
         <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1783,61 +1821,117 @@
         <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>

--- a/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
+++ b/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -120,9 +120,6 @@
     <t xml:space="preserve">Fail Login with non-existence account  </t>
   </si>
   <si>
-    <t>"Account successfully deleted." shown</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Password updated successfully." shown </t>
   </si>
   <si>
@@ -256,15 +253,6 @@
   </si>
   <si>
     <t>Please input empty fields</t>
-  </si>
-  <si>
-    <t>Login Page Redirect To http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/index.html</t>
-  </si>
-  <si>
-    <t>Login with Test Case 16
-Email: anotheruser@hotmail.com
-Password: password 
-Click Login button</t>
   </si>
   <si>
     <t>Login in with Test Case 17
@@ -281,10 +269,6 @@
 Password:  password!23
 Role: 'Non-Admin' from drop down list 
 Click Create New Account button</t>
-  </si>
-  <si>
-    <t>A blue color text was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
-Note: This account appears in account mangement tab</t>
   </si>
   <si>
     <t>Page remains the same after clicking the edit button. Unable to edit password</t>
@@ -373,15 +357,6 @@
     <t xml:space="preserve">UI / Codes? </t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>ecf</t>
-  </si>
-  <si>
     <t>Codes</t>
   </si>
   <si>
@@ -392,9 +367,6 @@
   </si>
   <si>
     <t>The page did not load after clicking the reset button</t>
-  </si>
-  <si>
-    <t>the account was removed without any success message</t>
   </si>
   <si>
     <t>pass</t>
@@ -411,10 +383,6 @@
 Click Update button</t>
   </si>
   <si>
-    <t xml:space="preserve">"Username is taken" was shown for 1 second under  "Create New Account" but was missing after that. Page did not redirect to any page.
- </t>
-  </si>
-  <si>
     <t>Value specific validation</t>
   </si>
   <si>
@@ -422,9 +390,6 @@
   </si>
   <si>
     <t>Error message should appear to indicate fill cannot be empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nothing happens </t>
   </si>
   <si>
     <t xml:space="preserve">Login as admin, in accountmangement.html / account management tab, select anotheruser account, click 'reset' </t>
@@ -449,8 +414,31 @@
 click 'Create New Account'</t>
   </si>
   <si>
-    <t>"username is taken"
-Note: This account appears in account mangement tab</t>
+    <t>Login Page Redirect To http://ec2-35-164-141-199.us-west-2.compute.amazonaws.com/U-Link/index.html</t>
+  </si>
+  <si>
+    <t>"Account successfully created" shown , redirect to accountmangement.html</t>
+  </si>
+  <si>
+    <t>Incorrect username/password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account disappear from the table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the account was removed </t>
+  </si>
+  <si>
+    <t>Login with Test Case 16
+Email: anotheruser
+Password: password 
+Click Login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username is taken </t>
+  </si>
+  <si>
+    <t>Password cannot be empty</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1088,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1106,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1114,45 +1102,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -1163,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
@@ -1186,19 +1172,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -1209,26 +1195,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
@@ -1237,19 +1221,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1263,26 +1247,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
@@ -1291,26 +1273,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
@@ -1319,19 +1299,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -1345,13 +1325,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1371,26 +1351,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
@@ -1399,26 +1377,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
@@ -1427,26 +1403,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
@@ -1455,82 +1429,76 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="170.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="124" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
@@ -1539,13 +1507,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1565,25 +1533,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
@@ -1593,82 +1561,78 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
@@ -1677,26 +1641,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
@@ -1705,22 +1667,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1731,22 +1693,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1757,22 +1719,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1783,22 +1745,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1809,25 +1771,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
@@ -1837,22 +1799,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1863,19 +1825,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>6</v>
@@ -1889,19 +1851,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>6</v>
@@ -1915,19 +1877,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>6</v>

--- a/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
+++ b/Test Cases/Iteration 3/Iteration 3 Test Cases v2 result.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -284,12 +284,6 @@
 Click Create New Account button</t>
   </si>
   <si>
-    <t>Able to access the page, page mentioned user was logged in as admin</t>
-  </si>
-  <si>
-    <t>Tab appearred in header. Able to access the page, page mentioned user was logged in as admin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Login with Test Case 15 
 Create User Account with the following - 
 Email: anotheruser
@@ -357,12 +351,6 @@
     <t xml:space="preserve">UI / Codes? </t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>codes</t>
-  </si>
-  <si>
     <t>Error Message Shown / Redirect to home page</t>
   </si>
   <si>
@@ -370,9 +358,6 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>Able to access the page and create account successfully.</t>
   </si>
   <si>
     <t>Login with Test Case 6
@@ -439,6 +424,12 @@
   </si>
   <si>
     <t>Password cannot be empty</t>
+  </si>
+  <si>
+    <t>Did not direct to user homepage, create new account show successful message but account not created in idb</t>
+  </si>
+  <si>
+    <t>did not redirect to home page</t>
   </si>
 </sst>
 </file>
@@ -462,12 +453,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -482,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -508,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
@@ -1233,7 +1233,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -1259,7 +1259,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -1279,13 +1279,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -1305,13 +1305,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -1331,7 +1331,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1357,13 +1357,13 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
@@ -1383,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -1392,7 +1392,7 @@
         <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1409,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1418,7 +1418,7 @@
         <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1435,13 +1435,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -1487,7 +1487,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
@@ -1513,7 +1513,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1542,21 +1542,19 @@
         <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1573,14 +1571,12 @@
         <v>32</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
@@ -1595,13 +1591,13 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>6</v>
@@ -1621,13 +1617,13 @@
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
@@ -1682,7 +1678,7 @@
         <v>52</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1708,7 +1704,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1734,7 +1730,7 @@
         <v>52</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1760,7 +1756,7 @@
         <v>52</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1777,20 +1773,18 @@
         <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
@@ -1799,19 +1793,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>6</v>
@@ -1825,19 +1819,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="F30" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>6</v>
@@ -1851,19 +1845,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="F31" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>6</v>
@@ -1877,19 +1871,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="F32" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>6</v>
